--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value856.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value856.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9997181141946829</v>
+        <v>0.6697832942008972</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.42131519317627</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.619668245315552</v>
       </c>
       <c r="D1">
-        <v>1.896117644042947</v>
+        <v>3.069816589355469</v>
       </c>
       <c r="E1">
-        <v>1.265052916966635</v>
+        <v>1.747338056564331</v>
       </c>
     </row>
   </sheetData>
